--- a/xlsx/country_comparison/petition_positive.xlsx
+++ b/xlsx/country_comparison/petition_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,13 +32,19 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Petition for G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petition for R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">petition</t>
+    <t xml:space="preserve">Petition for GCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petition for NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_petition_270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_petition_271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petition (any)</t>
   </si>
 </sst>
 </file>
@@ -395,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.65625</v>
+        <v>0.75</v>
       </c>
       <c r="C2" t="n">
-        <v>0.761904761904762</v>
+        <v>0.681318681318681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.416666666666667</v>
+        <v>0.836065573770492</v>
       </c>
       <c r="E2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.545454545454545</v>
+        <v>0.501118568232662</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.542857142857143</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.941176470588235</v>
+        <v>0.655737704918033</v>
       </c>
       <c r="E3" t="n">
-        <v>0.628571428571429</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F3" t="n">
-        <v>0.595238095238095</v>
+        <v>0.548136645962733</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +441,55 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.597014925373134</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.741935483870968</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.724137931034483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.647058823529412</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.569767441860465</v>
+        <v>0</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.690140845070423</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.640883977900553</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.745901639344262</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.630434782608696</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.524153670597185</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_positive.xlsx
+++ b/xlsx/country_comparison/petition_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">Petition for NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_petition_270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_petition_271</t>
   </si>
   <si>
     <t xml:space="preserve">Petition (any)</t>
@@ -401,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.694189602446483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.681318681318681</v>
+        <v>0.670241286863271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.836065573770492</v>
+        <v>0.776119402985075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.722222222222222</v>
+        <v>0.70404984423676</v>
       </c>
       <c r="F2" t="n">
-        <v>0.501118568232662</v>
+        <v>0.50297176820208</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.628571428571429</v>
+        <v>0.645051194539249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.65625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.655737704918033</v>
+        <v>0.752727272727273</v>
       </c>
       <c r="E3" t="n">
-        <v>0.571428571428571</v>
+        <v>0.656346749226006</v>
       </c>
       <c r="F3" t="n">
-        <v>0.548136645962733</v>
+        <v>0.547417116422513</v>
       </c>
     </row>
     <row r="4">
@@ -441,55 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.670967741935484</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.663143989431968</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.76427255985267</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.690140845070423</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.640883977900553</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.745901639344262</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.630434782608696</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.524153670597185</v>
+        <v>0.680124223602484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.524782444192206</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_positive.xlsx
+++ b/xlsx/country_comparison/petition_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,10 +35,13 @@
     <t xml:space="preserve">Petition for GCS</t>
   </si>
   <si>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Petition for NR</t>
   </si>
   <si>
-    <t xml:space="preserve">Petition (any)</t>
+    <t xml:space="preserve">National redistribution scheme (NR)</t>
   </si>
 </sst>
 </file>
@@ -395,19 +398,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.694189602446483</v>
+        <v>0.681895214481907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.670241286863271</v>
+        <v>0.663290810587498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.776119402985075</v>
+        <v>0.763641134026349</v>
       </c>
       <c r="E2" t="n">
-        <v>0.70404984423676</v>
+        <v>0.705491528454673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.50297176820208</v>
+        <v>0.510380196530389</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +418,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.645051194539249</v>
+        <v>0.781995380252627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.65625</v>
+        <v>0.712010897427332</v>
       </c>
       <c r="D3" t="n">
-        <v>0.752727272727273</v>
+        <v>0.827767423293579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.656346749226006</v>
+        <v>0.722976555380657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.547417116422513</v>
+        <v>0.533050523673449</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +438,39 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.670967741935484</v>
+        <v>0.643972435966532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.663143989431968</v>
+        <v>0.650990562380297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76427255985267</v>
+        <v>0.759561269770559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.680124223602484</v>
+        <v>0.64093295484262</v>
       </c>
       <c r="F4" t="n">
-        <v>0.524782444192206</v>
+        <v>0.557145338963668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.73910336861936</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.657873173914221</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.806905458602824</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.737342206824473</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.543655064678521</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_positive.xlsx
+++ b/xlsx/country_comparison/petition_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Petition for GCS</t>
@@ -392,85 +395,100 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.681895214481907</v>
+        <v>0.510380196530389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.663290810587498</v>
+        <v>0.696630594730689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.763641134026349</v>
+        <v>0.692773054387497</v>
       </c>
       <c r="E2" t="n">
-        <v>0.705491528454673</v>
+        <v>0.666048128290673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.510380196530389</v>
+        <v>0.763311307061962</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.729734713272285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.781995380252627</v>
+        <v>0.533050523673449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.712010897427332</v>
+        <v>0.752698343735098</v>
       </c>
       <c r="D3" t="n">
-        <v>0.827767423293579</v>
+        <v>0.805398319468679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.722976555380657</v>
+        <v>0.708750845625959</v>
       </c>
       <c r="F3" t="n">
-        <v>0.533050523673449</v>
+        <v>0.813439832560037</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.745700372884844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.643972435966532</v>
+        <v>0.557145338963668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.650990562380297</v>
+        <v>0.665952273858717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.759561269770559</v>
+        <v>0.659427032145515</v>
       </c>
       <c r="E4" t="n">
-        <v>0.64093295484262</v>
+        <v>0.664950430252853</v>
       </c>
       <c r="F4" t="n">
-        <v>0.557145338963668</v>
+        <v>0.746059216793303</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.64304231631188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.73910336861936</v>
+        <v>0.543655064678521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.657873173914221</v>
+        <v>0.724413635192711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.806905458602824</v>
+        <v>0.767123422555058</v>
       </c>
       <c r="E5" t="n">
-        <v>0.737342206824473</v>
+        <v>0.661684892722312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.543655064678521</v>
+        <v>0.80196078442816</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7516505366876</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_positive.xlsx
+++ b/xlsx/country_comparison/petition_positive.xlsx
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510380196530389</v>
+        <v>0.510571125113055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.696630594730689</v>
+        <v>0.689576236692287</v>
       </c>
       <c r="D2" t="n">
-        <v>0.692773054387497</v>
+        <v>0.693127600298825</v>
       </c>
       <c r="E2" t="n">
-        <v>0.666048128290673</v>
+        <v>0.656991216496083</v>
       </c>
       <c r="F2" t="n">
-        <v>0.763311307061962</v>
+        <v>0.764060026675681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.729734713272285</v>
+        <v>0.692537089444723</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.533050523673449</v>
+        <v>0.541940293813814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.752698343735098</v>
+        <v>0.757124442969868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.805398319468679</v>
+        <v>0.80287801319803</v>
       </c>
       <c r="E3" t="n">
-        <v>0.708750845625959</v>
+        <v>0.71266432814077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.813439832560037</v>
+        <v>0.814181202537546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.745700372884844</v>
+        <v>0.741093867939918</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.557145338963668</v>
+        <v>0.573711579248571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.665952273858717</v>
+        <v>0.673958979786957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.659427032145515</v>
+        <v>0.648348093355212</v>
       </c>
       <c r="E4" t="n">
-        <v>0.664950430252853</v>
+        <v>0.660507742571578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.746059216793303</v>
+        <v>0.747734076976762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.64304231631188</v>
+        <v>0.679013724359362</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.543655064678521</v>
+        <v>0.558336087713609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.724413635192711</v>
+        <v>0.72449033939416</v>
       </c>
       <c r="D5" t="n">
-        <v>0.767123422555058</v>
+        <v>0.768838719029281</v>
       </c>
       <c r="E5" t="n">
-        <v>0.661684892722312</v>
+        <v>0.658433214287983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.80196078442816</v>
+        <v>0.79892524528987</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7516505366876</v>
+        <v>0.749406163217863</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_positive.xlsx
+++ b/xlsx/country_comparison/petition_positive.xlsx
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510571125113055</v>
+        <v>0.510632323755612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.689576236692287</v>
+        <v>0.691951410757099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.693127600298825</v>
+        <v>0.693091880420722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.656991216496083</v>
+        <v>0.656978514559047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.764060026675681</v>
+        <v>0.781832319583008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.692537089444723</v>
+        <v>0.692552700180898</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.541940293813814</v>
+        <v>0.527972736493319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.757124442969868</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.80287801319803</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.71266432814077</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F3" t="n">
-        <v>0.814181202537546</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.741093867939918</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.573711579248571</v>
+        <v>0.57372741563391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.673958979786957</v>
+        <v>0.674017108978727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.648348093355212</v>
+        <v>0.648274021891491</v>
       </c>
       <c r="E4" t="n">
-        <v>0.660507742571578</v>
+        <v>0.660516788041267</v>
       </c>
       <c r="F4" t="n">
-        <v>0.747734076976762</v>
+        <v>0.735905831480895</v>
       </c>
       <c r="G4" t="n">
-        <v>0.679013724359362</v>
+        <v>0.678988666007824</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.558336087713609</v>
+        <v>0.557518324399071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.72449033939416</v>
+        <v>0.726238536290562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.768838719029281</v>
+        <v>0.768794438370656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.658433214287983</v>
+        <v>0.658435932985819</v>
       </c>
       <c r="F5" t="n">
-        <v>0.79892524528987</v>
+        <v>0.787745433104858</v>
       </c>
       <c r="G5" t="n">
-        <v>0.749406163217863</v>
+        <v>0.749378737165197</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_positive.xlsx
+++ b/xlsx/country_comparison/petition_positive.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Petition for GCS</t>
+    <t xml:space="preserve">Petition for the GCS</t>
   </si>
   <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.527972736493319</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C3" t="n">
         <v>0.757320866764204</v>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.557518324399071</v>
+        <v>0.558431322893747</v>
       </c>
       <c r="C5" t="n">
         <v>0.726238536290562</v>
